--- a/Test Data/Gallery_MPM_Attached_Functionality_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_MPM_Attached_Functionality_Pro_Lite_Panels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5364E349-A9FE-4937-A075-A2F419EB5FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9A8EF3-BD02-49CE-B227-5CC2DC40932A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6166271A-0A48-43E5-8CA4-FA3257AE4873}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6166271A-0A48-43E5-8CA4-FA3257AE4873}"/>
   </bookViews>
   <sheets>
     <sheet name="Netherlands" sheetId="1" r:id="rId1"/>
     <sheet name="Italy" sheetId="2" r:id="rId2"/>
+    <sheet name="Portugal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -101,6 +102,12 @@
   </si>
   <si>
     <t>NGC-3145/T2159</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2551</t>
   </si>
 </sst>
 </file>
@@ -654,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5185E2-6860-455F-9038-0A262355F582}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,5 +783,136 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E97297-A96D-4BC9-819A-C458CE49A929}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Gallery_MPM_Attached_Functionality_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_MPM_Attached_Functionality_Pro_Lite_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9A8EF3-BD02-49CE-B227-5CC2DC40932A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57077445-6D11-460C-8165-AB05EA05A3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6166271A-0A48-43E5-8CA4-FA3257AE4873}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6166271A-0A48-43E5-8CA4-FA3257AE4873}"/>
   </bookViews>
   <sheets>
     <sheet name="Netherlands" sheetId="1" r:id="rId1"/>
     <sheet name="Italy" sheetId="2" r:id="rId2"/>
     <sheet name="Portugal" sheetId="3" r:id="rId3"/>
+    <sheet name="Spain" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -108,6 +109,12 @@
   </si>
   <si>
     <t>NGC-3479/T2551</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2037</t>
   </si>
 </sst>
 </file>
@@ -791,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E97297-A96D-4BC9-819A-C458CE49A929}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,4 +922,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80CE5EE-EE0A-4FD8-81C7-9BB41CCAEDB8}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MPM_Attached_Functionality_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_MPM_Attached_Functionality_Pro_Lite_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57077445-6D11-460C-8165-AB05EA05A3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A2ACEB-C578-499B-8BD1-F570992CD2B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6166271A-0A48-43E5-8CA4-FA3257AE4873}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6166271A-0A48-43E5-8CA4-FA3257AE4873}"/>
   </bookViews>
   <sheets>
     <sheet name="Netherlands" sheetId="1" r:id="rId1"/>
     <sheet name="Italy" sheetId="2" r:id="rId2"/>
     <sheet name="Portugal" sheetId="3" r:id="rId3"/>
     <sheet name="Spain" sheetId="4" r:id="rId4"/>
+    <sheet name="UK" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>NGC-3103/T2037</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3399</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -928,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80CE5EE-EE0A-4FD8-81C7-9BB41CCAEDB8}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1053,4 +1060,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889EB876-239B-414F-86A7-876EC02CD489}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>